--- a/proyecto_1_Bi_2023-2/Datos/Calificacion entre compañeros y F1.xlsx
+++ b/proyecto_1_Bi_2023-2/Datos/Calificacion entre compañeros y F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\universidad\Semestre 2023-2\Bi\Proyectos\Proyecto_BI_Etapa_1_20232\proyecto_1_Bi_2023-2\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95CE0A15-3655-4B1A-9648-C0A03D88384A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F5660B-2E22-4448-B435-C5E1CFD06239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92195467-FDEF-46B8-A2BA-F81BD2340DA9}"/>
   </bookViews>
@@ -194,19 +194,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,7 +526,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,10 +549,10 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -626,11 +626,11 @@
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
@@ -640,24 +640,24 @@
         <v>17</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
